--- a/Localidades SEIR.xlsx
+++ b/Localidades SEIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juani\Desktop\Covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163ABCB-62C0-4A50-9481-BD0619F33176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE21DB6-BD8F-40BA-AD24-098FFD89345D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1733EA3-E292-45C0-8084-399237056F99}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Poblacion</t>
   </si>
@@ -41,43 +41,43 @@
     <t>Inicial</t>
   </si>
   <si>
-    <t>Beta</t>
-  </si>
-  <si>
     <t>Gamma</t>
   </si>
   <si>
-    <t>R0</t>
-  </si>
-  <si>
     <t>Localidad</t>
   </si>
   <si>
     <t>Sigma</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>Beta1</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>R0_1</t>
+  </si>
+  <si>
+    <t>Duracion_medidas</t>
+  </si>
+  <si>
+    <t>Beta_medidas</t>
+  </si>
+  <si>
+    <t>R0_medidas</t>
+  </si>
+  <si>
+    <t>Efectividad_medidas</t>
+  </si>
+  <si>
+    <t>Inicio_medidas</t>
+  </si>
+  <si>
+    <t>Escenario</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -93,12 +93,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,247 +438,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2291CE-C12D-4109-A6BF-E45658E4F9F6}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>+B2&amp;": inicio en día "&amp;K2&amp;" durante "&amp;L2&amp;" días, con efectividad de la medida de "&amp;INT(N2*100)&amp;"%"</f>
+        <v>X: inicio en día 60 durante 5 días, con efectividad de la medida de 25%</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>100000</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="F2" s="3">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2" s="3">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="F2">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G2" s="1">
-        <f>+D2/E2</f>
+      <c r="H2" s="1">
+        <f>+E2/F2</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="3">
+        <v>180</v>
+      </c>
+      <c r="K2" s="3">
+        <v>60</v>
+      </c>
+      <c r="L2" s="3">
         <v>5</v>
       </c>
+      <c r="M2">
+        <f>+I2/F2</f>
+        <v>2.25</v>
+      </c>
+      <c r="N2" s="1">
+        <f>-(M2/H2-1)</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>30000</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A6" si="0">+B3&amp;": inicio en día "&amp;K3&amp;" durante "&amp;L3&amp;" días, con efectividad de la medida de "&amp;INT(N3*100)&amp;"%"</f>
+        <v>X: inicio en día 30 durante 15 días, con efectividad de la medida de 35%</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.52</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">1/5</f>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F6" si="1">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G6" si="2">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="1">1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G5" si="2">+D3/E3</f>
-        <v>2.6</v>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H4" si="3">+E3/F3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J3" s="3">
+        <v>180</v>
+      </c>
+      <c r="K3" s="3">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M4" si="4">+I3/F3</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N4" si="5">-(M3/H3-1)</f>
+        <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>250000</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>X: inicio en día 15 durante 30 días, con efectividad de la medida de 50%</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>180</v>
+      </c>
+      <c r="K4" s="3">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>X: inicio en día 15 durante 10 días, con efectividad de la medida de 60%</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="3">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>+E5/F5</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.4</v>
       </c>
-      <c r="E4">
+      <c r="J5" s="3">
+        <v>180</v>
+      </c>
+      <c r="K5" s="3">
+        <v>15</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f>+I5/F5</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="N5" s="1">
+        <f>-(M5/H5-1)</f>
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
+        <v>X: inicio en día 15 durante 90 días, con efectividad de la medida de 25%</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6" si="6">+E6/F6</f>
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="3">
+        <v>180</v>
+      </c>
+      <c r="K6" s="3">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3">
+        <v>90</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="7">+I6/F6</f>
+        <v>2.25</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6" si="8">-(M6/H6-1)</f>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>400000</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.45</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
-      </c>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>25000</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0.32</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G9" si="3">+D6/E6</f>
-        <v>1.5999999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>15000</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.38</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>150000</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>650000</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0.8</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
